--- a/4ИТ.2.xlsx
+++ b/4ИТ.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clojure\minotaur_labyrinth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CBCA9-C244-4B8F-B57C-B9464F289E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9558CF-8D5C-4DAF-BF5D-85AD84AA790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>4ИТ</t>
   </si>
@@ -69,9 +69,6 @@
     <t>11.   Хижний Евгений Георгиевич</t>
   </si>
   <si>
-    <t>Предметы, Merge Requests, ТЕСТИНГ</t>
-  </si>
-  <si>
     <t>Спавн игрока, Спавн Минотавра Бориса, Победа, Выход</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Минотавр Борис, Merge Requests, тестинг</t>
   </si>
   <si>
-    <t>Игрок: Общение, Комуникации</t>
-  </si>
-  <si>
-    <t>Игрок: битвы</t>
-  </si>
-  <si>
     <t>Карта (тестовая и основная версия), Бот</t>
   </si>
   <si>
@@ -100,6 +91,48 @@
   </si>
   <si>
     <t>Игрок: обзор, видимость, обнаружение объектов и игроков</t>
+  </si>
+  <si>
+    <t>Игрок: Общение, Комуникации (на одну и несколько комнат)</t>
+  </si>
+  <si>
+    <t>Игрок: битвы, Здоровье</t>
+  </si>
+  <si>
+    <t>Предметы, Merge Requests, ТЕСТИНГ, расстановка предметов, информация об игроке</t>
+  </si>
+  <si>
+    <t>git.hub</t>
+  </si>
+  <si>
+    <t>IIIBo</t>
+  </si>
+  <si>
+    <t>mbolshakov2000</t>
+  </si>
+  <si>
+    <t>S-Vad-V</t>
+  </si>
+  <si>
+    <t>Khalturina</t>
+  </si>
+  <si>
+    <t>dadenusto2</t>
+  </si>
+  <si>
+    <t>EDNK</t>
+  </si>
+  <si>
+    <t>anastasia-lisitskay</t>
+  </si>
+  <si>
+    <t>chubassa</t>
+  </si>
+  <si>
+    <t>ValeriyRom</t>
+  </si>
+  <si>
+    <t>troeglazovaMA</t>
   </si>
 </sst>
 </file>
@@ -173,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -211,31 +244,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -519,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,128 +604,188 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="25">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
